--- a/Data/Calibration/ConsumptionParameters/Cons_Guide_Tables.xlsx
+++ b/Data/Calibration/ConsumptionParameters/Cons_Guide_Tables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="22940" windowHeight="14520" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="22940" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Cons Categories" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="116">
   <si>
     <t>Category</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Shelter</t>
   </si>
   <si>
-    <t>SHELTER</t>
-  </si>
-  <si>
     <t>Level 3, "Shelter"</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>One earner</t>
   </si>
   <si>
-    <t>Two earners</t>
-  </si>
-  <si>
     <t>Share ($\beta_{it}$)</t>
   </si>
   <si>
@@ -371,6 +365,15 @@
   </si>
   <si>
     <t>CEX/PCE</t>
+  </si>
+  <si>
+    <t>Two or more earners</t>
+  </si>
+  <si>
+    <t>910050 (for homeowner), RNTDWELL for renter</t>
+  </si>
+  <si>
+    <t>New and used cars, fees, and maintenance</t>
   </si>
 </sst>
 </file>
@@ -492,10 +495,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -922,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1014,10 +1017,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1025,13 +1028,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1039,13 +1042,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1053,13 +1056,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1067,13 +1070,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1081,13 +1084,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1095,16 +1098,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1112,16 +1115,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1129,16 +1132,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" t="s">
         <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1146,16 +1149,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" t="s">
         <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1163,13 +1166,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1177,13 +1180,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1191,18 +1194,18 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1234,71 +1237,71 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1333,144 +1336,144 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -1520,78 +1523,78 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1622,32 +1625,32 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="C1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
@@ -1657,76 +1660,76 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>66</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>68</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>69</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>70</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>71</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>72</v>
       </c>
-      <c r="M2" t="s">
-        <v>73</v>
-      </c>
       <c r="N2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" t="s">
         <v>97</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>98</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>99</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>100</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>101</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>102</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>103</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>104</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>105</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>106</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -1774,7 +1777,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1782,7 +1785,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1790,7 +1793,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1798,7 +1801,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1806,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1814,7 +1817,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1822,7 +1825,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1830,7 +1833,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1838,7 +1841,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1846,7 +1849,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1854,7 +1857,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1862,12 +1865,12 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="B20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C20">
         <f>SUM(C3:C19)</f>
@@ -1984,7 +1987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1998,13 +2001,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
         <v>112</v>
-      </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2072,7 +2075,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="e">
         <f t="shared" si="0"/>
@@ -2084,7 +2087,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="e">
         <f t="shared" si="0"/>
@@ -2096,7 +2099,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="e">
         <f t="shared" si="0"/>
@@ -2108,7 +2111,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="e">
         <f t="shared" si="0"/>
@@ -2120,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="e">
         <f t="shared" si="0"/>
@@ -2132,7 +2135,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" t="e">
         <f t="shared" si="0"/>
@@ -2144,7 +2147,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="e">
         <f t="shared" si="0"/>
@@ -2156,7 +2159,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" t="e">
         <f t="shared" si="0"/>
@@ -2168,7 +2171,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="e">
         <f t="shared" si="0"/>
@@ -2180,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" t="e">
         <f t="shared" si="0"/>
@@ -2192,7 +2195,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" t="e">
         <f t="shared" si="0"/>
@@ -2204,7 +2207,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="e">
         <f t="shared" si="0"/>
@@ -2233,18 +2236,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="C1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -2254,28 +2257,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
         <v>87</v>
       </c>
-      <c r="F2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>89</v>
       </c>
-      <c r="H2" t="s">
-        <v>91</v>
-      </c>
       <c r="I2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" t="s">
         <v>90</v>
-      </c>
-      <c r="J2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2398,7 +2401,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>2.7799999999999998E-2</v>
@@ -2421,7 +2424,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>7.9000000000000008E-3</v>
@@ -2444,7 +2447,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>8.8900000000000007E-2</v>
@@ -2467,7 +2470,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>1.5599999999999999E-2</v>
@@ -2490,7 +2493,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>7.8799999999999995E-2</v>
@@ -2513,7 +2516,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>0.2046</v>
@@ -2536,7 +2539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>8.43E-2</v>
@@ -2559,7 +2562,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>7.4499999999999997E-2</v>
@@ -2582,7 +2585,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>2.1100000000000001E-2</v>
@@ -2605,7 +2608,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>2.9000000000000001E-2</v>
@@ -2628,16 +2631,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18">
         <v>2.7300000000000001E-2</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G18">
         <v>142</v>
@@ -2651,16 +2654,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D19">
         <v>1.9699999999999999E-2</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G19">
         <v>41</v>
@@ -2671,7 +2674,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2701,10 +2704,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2712,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2720,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2728,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2736,7 +2739,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2744,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2752,7 +2755,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2760,7 +2763,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2768,7 +2771,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2776,7 +2779,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2784,7 +2787,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2792,7 +2795,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2800,7 +2803,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
